--- a/debitos_new.xlsx
+++ b/debitos_new.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="71">
   <si>
     <t>data</t>
   </si>
@@ -25,91 +25,208 @@
     <t>valor</t>
   </si>
   <si>
-    <t>05/04</t>
-  </si>
-  <si>
-    <t>05/05</t>
-  </si>
-  <si>
-    <t>05/07</t>
-  </si>
-  <si>
-    <t>05/11</t>
-  </si>
-  <si>
-    <t>05/12</t>
-  </si>
-  <si>
-    <t>05/13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Fios camera                                </t>
+    <t>06/02</t>
+  </si>
+  <si>
+    <t>06/03</t>
+  </si>
+  <si>
+    <t>06/05</t>
+  </si>
+  <si>
+    <t>06/08</t>
+  </si>
+  <si>
+    <t>06/09</t>
+  </si>
+  <si>
+    <t>06/10</t>
+  </si>
+  <si>
+    <t>06/15</t>
+  </si>
+  <si>
+    <t>4747/99</t>
+  </si>
+  <si>
+    <t>4750/99</t>
+  </si>
+  <si>
+    <t>8/18</t>
+  </si>
+  <si>
+    <t>06/16</t>
+  </si>
+  <si>
+    <t>06/22</t>
+  </si>
+  <si>
+    <t>9697/99</t>
+  </si>
+  <si>
+    <t>9700/99</t>
+  </si>
+  <si>
+    <t>/0</t>
+  </si>
+  <si>
+    <t>06/30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Adwords                                    </t>
   </si>
   <si>
     <t xml:space="preserve">     Internet                                   </t>
   </si>
   <si>
+    <t xml:space="preserve">     Cartucho impressora                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Alarme                                     </t>
+  </si>
+  <si>
     <t xml:space="preserve">     Claro                                      </t>
   </si>
   <si>
-    <t xml:space="preserve">     Verisure                                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Campanha vida adwords                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">            SALDO DO DIA =====&gt;        8.675,46C</t>
+    <t xml:space="preserve">            SALDO DO DIA =====&gt;       11.369,69C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Iss                                        </t>
   </si>
   <si>
     <t xml:space="preserve">     Contador                                   </t>
   </si>
   <si>
-    <t xml:space="preserve">     Iss                                        </t>
+    <t xml:space="preserve">     Intermedica                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     FAV.: ERALDO OMENA RIBEIRO                 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Arthur omena Ribeiro                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Bruno Omena Ribeiro                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Luz                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">            SALDO DO DIA =====&gt;       10.235,45C</t>
   </si>
   <si>
     <t xml:space="preserve">     Água                                       </t>
   </si>
   <si>
-    <t xml:space="preserve">     Luz                                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Adwords                                    </t>
-  </si>
-  <si>
-    <t>57.89</t>
-  </si>
-  <si>
-    <t>144.91</t>
-  </si>
-  <si>
-    <t>66.39</t>
-  </si>
-  <si>
-    <t>64.99</t>
-  </si>
-  <si>
-    <t>185.22</t>
-  </si>
-  <si>
-    <t>460.00</t>
-  </si>
-  <si>
-    <t>10.00</t>
-  </si>
-  <si>
-    <t>260.00</t>
-  </si>
-  <si>
-    <t>3.78</t>
-  </si>
-  <si>
-    <t>258.40</t>
-  </si>
-  <si>
-    <t>256.67</t>
-  </si>
-  <si>
-    <t>200.00</t>
+    <t xml:space="preserve">     Design                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Segflex                                    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Das                                        </t>
+  </si>
+  <si>
+    <t>2206 999702 DÉB.TIT.COMPE.EFETI           99,00D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Lvr                                        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Amil                                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Workana design                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Edicao html                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Html pdf de cotacao                        </t>
+  </si>
+  <si>
+    <t>3006 1004988DÉB.EMISSÃO DOC-C            178,30D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     FAV.: Dayana alencar                       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     FAV.: Sabrina de cassia lopes da silva m   </t>
+  </si>
+  <si>
+    <t>200,00</t>
+  </si>
+  <si>
+    <t>161,98</t>
+  </si>
+  <si>
+    <t>137,30</t>
+  </si>
+  <si>
+    <t>185,22</t>
+  </si>
+  <si>
+    <t>66,39</t>
+  </si>
+  <si>
+    <t>64,99</t>
+  </si>
+  <si>
+    <t>10,00</t>
+  </si>
+  <si>
+    <t>3,78</t>
+  </si>
+  <si>
+    <t>260,00</t>
+  </si>
+  <si>
+    <t>902,25</t>
+  </si>
+  <si>
+    <t>1.045,00</t>
+  </si>
+  <si>
+    <t>257,94</t>
+  </si>
+  <si>
+    <t>12,00</t>
+  </si>
+  <si>
+    <t>155,59</t>
+  </si>
+  <si>
+    <t>104,00</t>
+  </si>
+  <si>
+    <t>972,19</t>
+  </si>
+  <si>
+    <t>344,85</t>
+  </si>
+  <si>
+    <t>99,00</t>
+  </si>
+  <si>
+    <t>144,68</t>
+  </si>
+  <si>
+    <t>271,70</t>
+  </si>
+  <si>
+    <t>210,86</t>
+  </si>
+  <si>
+    <t>150,96</t>
+  </si>
+  <si>
+    <t>93,87</t>
+  </si>
+  <si>
+    <t>178,30</t>
+  </si>
+  <si>
+    <t>463,73</t>
   </si>
 </sst>
 </file>
@@ -467,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -489,10 +606,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -500,10 +617,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -511,120 +628,329 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
       </c>
       <c r="C14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
         <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
